--- a/src/assets/excels/templates/brand_template.xlsx
+++ b/src/assets/excels/templates/brand_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u071479\Frendy\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u071479\Frendy\Git\upload-file-excel\src\assets\excels\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>No.</t>
   </si>
@@ -42,13 +42,40 @@
   </si>
   <si>
     <t>Modified By</t>
+  </si>
+  <si>
+    <t>Test dummy</t>
+  </si>
+  <si>
+    <t>FLA-UPD</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Operator ULN 1</t>
+  </si>
+  <si>
+    <t>tes Group Child UAT 2</t>
+  </si>
+  <si>
+    <t>woi</t>
+  </si>
+  <si>
+    <t>Brand NEG</t>
+  </si>
+  <si>
+    <t>magen_opr1</t>
+  </si>
+  <si>
+    <t>Payment Gateway 12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,7 +86,12 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -85,9 +117,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -368,40 +415,120 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="14.7265625" customWidth="1"/>
-    <col min="3" max="3" width="13.08984375" customWidth="1"/>
-    <col min="4" max="4" width="11.54296875" customWidth="1"/>
-    <col min="5" max="5" width="15.6328125" customWidth="1"/>
-    <col min="6" max="6" width="17.6328125" customWidth="1"/>
+    <col min="3" max="3" width="13.08984375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="17.54296875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="21" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6">
+        <v>44357.595995370371</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4">
+        <v>12121</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="6">
+        <v>44206.694247685184</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1212</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="6">
+        <v>44206.694166666668</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="6">
+        <v>44414.643877314818</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
